--- a/output/missingItems.xlsx
+++ b/output/missingItems.xlsx
@@ -433,10 +433,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -445,8 +445,11 @@
     <col width="47" customWidth="1" style="1" min="2" max="2"/>
     <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
+    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -468,6 +471,16 @@
       <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Jours consécutifs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Next day to save</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -483,10 +496,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -495,8 +508,11 @@
     <col width="47" customWidth="1" style="1" min="2" max="2"/>
     <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
+    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -518,6 +534,16 @@
       <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Jours consécutifs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Next day to save</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -532,10 +558,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -544,8 +570,11 @@
     <col width="47" customWidth="1" style="1" min="2" max="2"/>
     <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
+    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -567,6 +596,16 @@
       <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Jours consécutifs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Next day to save</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -581,10 +620,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -593,8 +632,11 @@
     <col width="47" customWidth="1" style="1" min="2" max="2"/>
     <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
+    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -616,6 +658,16 @@
       <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Jours consécutifs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Next day to save</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -630,10 +682,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -642,8 +694,11 @@
     <col width="47" customWidth="1" style="1" min="2" max="2"/>
     <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
+    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -665,6 +720,16 @@
       <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Jours consécutifs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Next day to save</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -679,10 +744,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -691,8 +756,11 @@
     <col width="47" customWidth="1" style="1" min="2" max="2"/>
     <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
+    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -714,6 +782,16 @@
       <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Jours consécutifs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Next day to save</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -728,10 +806,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -740,8 +818,11 @@
     <col width="47" customWidth="1" style="1" min="2" max="2"/>
     <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
+    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -763,6 +844,16 @@
       <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Jours consécutifs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Next day to save</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -777,10 +868,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -789,8 +880,11 @@
     <col width="47" customWidth="1" style="1" min="2" max="2"/>
     <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
+    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -814,8 +908,19 @@
           <t>Jours consécutifs</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Next day to save</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/output/missingItems.xlsx
+++ b/output/missingItems.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coiffe" sheetId="1" state="visible" r:id="rId1"/>
@@ -60,12 +60,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -433,10 +436,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -448,8 +451,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
-    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
+    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -478,10 +481,302 @@
           <t>Next day to save</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>06-05-2021</t>
-        </is>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>07-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Choipo Podlard</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Minotokorno</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Végacoiffe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kwakoiffe de Vent</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Moskitogalurette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Casque du Craqueleur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Scaracoiffe Rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Scaracoiffe Bleue</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kannipiou</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kaskofu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bonnet Toual</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>128</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chapeau de la Gamine Zoth</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>156</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fantômasque</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bonnet du Glutin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>198</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Coiffe d'Oshimo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>197</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Coiffe du Kanimate</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>199</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bandeau Culaire</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>200</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Masque Ardent</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Casque alourdi</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bandeau d'apprenti Pandawushuka</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -496,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -511,8 +806,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
-    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
+    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -543,8 +838,334 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>06-05-2021</t>
-        </is>
+          <t>07-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cape du Poolay Chogrelotant</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cape Bontarienne</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cape Flotteuse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cape de l'Homme Ours</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cape de Farle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>46</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Craquelocape</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>46</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cape Ricéfini</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cape Hôte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>105</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cape Houte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>190</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Capignon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>194</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grésilocape</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>179</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cape du Korriandre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>196</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cape Hiculteur</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Invoc, Esquive PA, Esquive PM</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>124</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cape Mouthante</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>200</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cape Ovri</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>126</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cape d'Ali Grothor</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Esquive PM, Esquive PA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>197</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cape Tif</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retrait PM, Invoc</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tabard Nak</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ailes en bois alourdies</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sac du Petit Aventurier</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sac ripant</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +1179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -573,8 +1194,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
-    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
+    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -605,8 +1226,412 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>06-05-2021</t>
-        </is>
+          <t>07-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>La Broche Céleste</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Amulette de Krokette</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amulette du Pirate</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kabale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La Reinette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le foulard du Lard Fou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Œil de Kanigrou</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amulette "Dents de Wabbits"</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Invoc, PO</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amulette de l'Homme Ours</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amukwak du Vent</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Amulette du Kitsou</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Amulette du Boufcoul</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>105</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ouassulette</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>43</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>La Chaplivate</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Collertue</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Esquive PA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Amulette de Laikteur</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clémentamulette</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Amulette de Kubitus</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>43</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Amulette de Kalkanéus</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>46</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Amulette d'Haku</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Snarmulette</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pacmamulette</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Peignentif</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Esquive PM</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pendentiffre</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PA, Retrait PM</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>55</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Diplamu</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>30</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Amulette Verréhor</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -635,8 +1660,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
-    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
+    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -667,8 +1692,364 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>06-05-2021</t>
-        </is>
+          <t>07-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Blessure du Sacrieur</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Abranneau Sombre</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anneau Tribal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mos Kitano</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Scaranneau Blanc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anneau Merta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>49</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anneau Rigami</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anodindo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anneau du Tofu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>43</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anneau du Scarabosse Doré</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>45</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anneau Paupayahn</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anneau de la mort</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>43</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gantelet du Real Boitar</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>43</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gantelet des Bouftons Rouges</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Anneau de Laikteur</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>43</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Anneau de Grizou</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Anneau d'Hectaupe</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>43</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Anneau Pomdeupin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>44</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Anneau du Boostache</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bracelet du Glutin</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>43</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bague Rafe</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>150</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mandrano</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Gant de Frakacia</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rondelle de Waddict</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +2063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -697,8 +2078,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
-    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
+    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -729,8 +2110,478 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>06-05-2021</t>
-        </is>
+          <t>07-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ceinture Forcesque</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>La Végète Hâtif</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chtévu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ceinture Kokokette</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ceinture Tortue Verte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ceinture Banisation Sauvage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ceinture Brâkmarienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>80</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Farlature</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ceinture du Craqueleur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>49</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>String du Mulou</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>47</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ceinture Noire de Frank Lee Bruce</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ceinture Akwadala</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ceinture du Boufcoul</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ceinture du Koalak</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>130</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sangle Hynère</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>130</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sangle Hans</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>45</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Beignature</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ceinture Siks Won Naïne</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>43</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yugure</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ceinture de Tolot</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ceinture de Grüt</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ceinture de Gobeuf</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>43</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ceinture de Grouillot</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>61</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Slipapier</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>163</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ceinture des Prophètes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ceinture de Danioule</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Gladialeçon</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PO, Invoc</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ceinture Nikoti</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Esquive PA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ceinture Teule</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Esquive PM</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>195</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Obscture</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Esquive PA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ceinture Amincissante</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +2595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -759,8 +2610,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
-    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
+    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -791,8 +2642,566 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>06-05-2021</t>
-        </is>
+          <t>07-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bottes de Faillete</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bottes de Kluh</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bottes de Force</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sandales d'Intelligence</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bottes d'Hogmeiser</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bottes de Maîtrise</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bottes Volatiles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bottes de Lymphe a Tik</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L'Eni Kère</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>30</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Souliers Vernis de Porkass</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kwakobottes de Vent</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>47</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bottes du Craqueleur</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>30</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sandales Macien</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sandales Koliques</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>19</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bottes Paysannes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>100</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bottes Hox</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>100</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bottes Hairo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>47</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bottines du Black Wab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>43</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Les Sleumpettes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bottes du Real Boitar</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>44</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bottes de Grüt</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bottes de Rekto Topi</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bottes de Grizou</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Esquive PM</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bottes de Phong Huss</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bottes de Grouillot</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PO, Esquive PM</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Plumodales</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>190</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Grésilobottes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Botte de Kalkanéus</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bottes du Chafer Primitif</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>43</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bottes O'Feu</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Bottokami</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>199</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bottes d'Oshimo</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bottes Donion</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>30</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bottes de Frakacia</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mawabottes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +3215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -821,8 +3230,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
-    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
+    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -853,8 +3262,1134 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>06-05-2021</t>
-        </is>
+          <t>07-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Xaveur</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nomoon</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arc de Triomphe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arc Hancihaile</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arc de Jeanne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>46</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arc des Rivages</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arc du Xueluom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>87</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arc Chiduc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>82</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arc Ange</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>185</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arc Oleptik</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>167</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arc Tangente</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>175</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Arc Ontanporin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Baguette de Liriel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>45</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Baguette à Pans</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>43</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Baguette Sylvien</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>117</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Baguette d'Elya Wood</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>102</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Baguette Nah</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>43</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Baguette Cetera</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>81</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Baguette Hincelle</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Baguette du Scarabosse Doré</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>173</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Baguette Osseuse</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>30</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bâton en Racine d'Abraknyde</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bâton du Maître des Tabis</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>29</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>La Lance à un "110"</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>87</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Abraton Sombre</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>133</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>La Canne Bière</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sceptre Zor</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>110</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bâton en bambou spirituel</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Blessdags</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Dagues Ancestrales</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Le Rasoir Infernal</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>119</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Dague Régah</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>La Triste Lame</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>25</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>La Klebik</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>26</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Epée du Chevalier</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Kwaklame du Vent</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>92</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sabre Yondanwa</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>177</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Epée Kadille</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Esquive PM</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>120</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Katana de la Flamme</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>120</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Katana de la Tempête</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>120</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Katana de la Marée</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>120</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Katana de la Roche</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>120</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Katana de la Feuille</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>23</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Barabas</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>26</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Marteau de l'Aurore</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>43</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Masse Tmosfer</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Le Scrounnchhh</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>124</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Marteau Ksain</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Marteau du Boufcoul</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>178</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Marteau Minokers</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Marteau Martel</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>122</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mourtheau</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>43</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Marteau du Chafer Draugr</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>197</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Marteau des Anciens Steamers</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Fléau d'armes</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Barbe Grise</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>29</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Pelle du Craqueleur</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>40</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Rhizome Doré</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Pelle Teuze</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>50</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Pelle Melle</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pelle Woukuis</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Pelle de Koutoulou</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>21</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Pelle Houze</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>50</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Pelle Ikan</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Pelle Musicale</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Pelle en Mousse</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>179</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Pelle Hectrochoc</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>199</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Pelle Vice</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>200</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Pelle de Nidas</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>93</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Fendeuse d'Abraknyde Ancestral</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Coupeuse de Bombu</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>99</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Halle de Barde</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>128</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Le Fendoir Tichaud</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>62</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Hache Ebbah</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>153</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Hache du Fancrôme</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -868,10 +4403,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -883,8 +4418,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="13"/>
-    <col width="9.140625" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
+    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -913,10 +4448,52 @@
           <t>Next day to save</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>06-05-2021</t>
-        </is>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>07-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Écu Rikulome</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>200</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bouclier des Chocomanciens</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pandaclier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/missingItems.xlsx
+++ b/output/missingItems.xlsx
@@ -451,8 +451,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
-    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
+    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -478,12 +478,12 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Next day to save</t>
+          <t>Last save</t>
         </is>
       </c>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>07-05-2021</t>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -558,7 +558,7 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -586,7 +586,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +628,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -642,7 +642,7 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +656,7 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -670,7 +670,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -712,7 +712,7 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -762,7 +762,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -776,7 +776,7 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -806,8 +806,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
-    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
+    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -833,12 +833,12 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Next day to save</t>
+          <t>Last save</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>07-05-2021</t>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -867,7 +867,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -881,7 +881,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -927,7 +927,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -941,7 +941,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -973,7 +973,7 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -987,7 +987,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1194,8 +1194,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
-    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
+    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Next day to save</t>
+          <t>Last save</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>07-05-2021</t>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -1660,8 +1660,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
-    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
+    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1687,12 +1687,12 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Next day to save</t>
+          <t>Last save</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>07-05-2021</t>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1851,21 +1851,25 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Anneau de la mort</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Gantelet du Real Boitar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1874,7 +1878,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gantelet du Real Boitar</t>
+          <t>Gantelet des Bouftons Rouges</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1883,173 +1887,155 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gantelet des Bouftons Rouges</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
+          <t>Anneau de Laikteur</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Anneau de Laikteur</t>
+          <t>Anneau de Grizou</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Anneau de Grizou</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Anneau d'Hectaupe</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anneau d'Hectaupe</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
+          <t>Anneau Pomdeupin</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Anneau Pomdeupin</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Anneau du Boostache</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Anneau du Boostache</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Retrait PM</t>
-        </is>
-      </c>
+          <t>Bracelet du Glutin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bracelet du Glutin</t>
+          <t>Bague Rafe</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bague Rafe</t>
+          <t>Mandrano</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mandrano</t>
+          <t>Gant de Frakacia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gant de Frakacia</t>
+          <t>Rondelle de Waddict</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>56</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Rondelle de Waddict</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2078,8 +2064,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
-    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
+    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2105,12 +2091,12 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Next day to save</t>
+          <t>Last save</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>07-05-2021</t>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2111,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2139,7 +2125,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2157,7 +2143,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2171,7 +2157,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2189,7 +2175,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2203,7 +2189,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2217,7 +2203,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2231,7 +2217,7 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2245,7 +2231,7 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2259,7 +2245,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2273,7 +2259,7 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2287,7 +2273,7 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2301,7 +2287,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2319,7 +2305,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2333,7 +2319,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2347,7 +2333,7 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2361,7 +2347,7 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2375,7 +2361,7 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2389,7 +2375,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2403,7 +2389,7 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2417,7 +2403,7 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2431,7 +2417,7 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2445,7 +2431,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2463,7 +2449,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2481,7 +2467,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2495,7 +2481,7 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2513,7 +2499,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2531,7 +2517,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2549,7 +2535,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2567,7 +2553,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2581,7 +2567,7 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2610,8 +2596,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
-    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
+    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2637,12 +2623,12 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Next day to save</t>
+          <t>Last save</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>07-05-2021</t>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2643,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2671,7 +2657,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2685,7 +2671,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2699,7 +2685,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2717,7 +2703,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2731,7 +2717,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2745,7 +2731,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2763,7 +2749,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2781,7 +2767,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2795,7 +2781,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2809,7 +2795,7 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2823,7 +2809,7 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2837,7 +2823,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2855,7 +2841,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2869,7 +2855,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2887,7 +2873,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2905,7 +2891,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2923,7 +2909,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2941,7 +2927,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2955,7 +2941,7 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2973,7 +2959,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2987,7 +2973,7 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3005,7 +2991,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3023,7 +3009,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3041,7 +3027,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3055,7 +3041,7 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3073,7 +3059,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3091,7 +3077,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3105,7 +3091,7 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3119,7 +3105,7 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3137,7 +3123,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3141,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3169,7 +3155,7 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3183,7 +3169,7 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3201,7 +3187,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3230,8 +3216,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
-    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
+    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -3257,12 +3243,12 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Next day to save</t>
+          <t>Last save</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>07-05-2021</t>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3263,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3291,7 +3277,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3305,7 +3291,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3319,7 +3305,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3337,7 +3323,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3355,7 +3341,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3369,7 +3355,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3387,7 +3373,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3401,7 +3387,7 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3419,7 +3405,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3437,7 +3423,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3451,7 +3437,7 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3465,7 +3451,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3483,7 +3469,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3501,7 +3487,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3519,7 +3505,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3533,7 +3519,7 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3547,7 +3533,7 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3561,7 +3547,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3579,7 +3565,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3593,7 +3579,7 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3607,7 +3593,7 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3625,7 +3611,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3639,7 +3625,7 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3657,7 +3643,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3671,7 +3657,7 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3685,7 +3671,7 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3703,7 +3689,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3717,7 +3703,7 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3735,7 +3721,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3749,7 +3735,7 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3763,7 +3749,7 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3777,7 +3763,7 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3791,7 +3777,7 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3805,7 +3791,7 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3819,7 +3805,7 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3833,7 +3819,7 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3851,7 +3837,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3865,7 +3851,7 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3879,7 +3865,7 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3893,7 +3879,7 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3907,7 +3893,7 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3921,7 +3907,7 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3935,7 +3921,7 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3949,7 +3935,7 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3963,7 +3949,7 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3977,7 +3963,7 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3991,7 +3977,7 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4009,7 +3995,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4027,7 +4013,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4041,7 +4027,7 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4055,7 +4041,7 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4069,7 +4055,7 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4083,7 +4069,7 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -4097,7 +4083,7 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -4111,7 +4097,7 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4125,7 +4111,7 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4139,7 +4125,7 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -4153,7 +4139,7 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -4167,7 +4153,7 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4181,7 +4167,7 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4195,7 +4181,7 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4213,7 +4199,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4231,7 +4217,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -4245,7 +4231,7 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4259,7 +4245,7 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4273,7 +4259,7 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4287,7 +4273,7 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4305,7 +4291,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -4319,7 +4305,7 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4333,7 +4319,7 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4347,7 +4333,7 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4361,7 +4347,7 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4375,7 +4361,7 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4389,7 +4375,7 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4392,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4418,8 +4404,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="14"/>
-    <col width="9.140625" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
+    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -4445,12 +4431,12 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Next day to save</t>
+          <t>Last save</t>
         </is>
       </c>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>07-05-2021</t>
+          <t>06-05-2021</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4451,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4479,7 +4465,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4493,7 +4479,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/missingItems.xlsx
+++ b/output/missingItems.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coiffe" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Bottes" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Arme" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Bouclier" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Trophée" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -436,9 +437,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -451,8 +452,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
-    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="17"/>
+    <col width="9.140625" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -549,11 +550,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Moskitogalurette</t>
+          <t>Casque du Craqueleur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -567,7 +568,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Casque du Craqueleur</t>
+          <t>Scaracoiffe Verte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -595,7 +596,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Scaracoiffe Bleue</t>
+          <t>Scaracoiffe Blanche</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -605,11 +606,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kannipiou</t>
+          <t>Scaracoiffe Bleue</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -619,11 +620,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kaskofu</t>
+          <t>Kannipiou</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -633,11 +634,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bonnet Toual</t>
+          <t>Kaskofu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -647,11 +648,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chapeau de la Gamine Zoth</t>
+          <t>Bonnet Toual</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -661,11 +662,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fantômasque</t>
+          <t>Chapeau Taufeu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -675,11 +676,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bonnet du Glutin</t>
+          <t>Chapeau de la Gamine Zoth</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -689,11 +690,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Coiffe d'Oshimo</t>
+          <t>Fantômasque</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -703,11 +704,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Coiffe du Kanimate</t>
+          <t>Bonnet du Glutin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -717,65 +718,93 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bandeau Culaire</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
+          <t>Coiffe d'Oshimo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Masque Ardent</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
+          <t>Coiffe du Kanimate</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Casque alourdi</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Bandeau Culaire</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>200</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Masque Ardent</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Casque alourdi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>10</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Bandeau d'apprenti Pandawushuka</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -791,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -806,8 +835,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
-    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="17"/>
+    <col width="9.140625" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -858,11 +887,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cape Bontarienne</t>
+          <t>Cape Itou Lascione</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -872,11 +901,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cape Flotteuse</t>
+          <t>Cape Bontarienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -886,11 +915,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cape de l'Homme Ours</t>
+          <t>Cape Flotteuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -900,32 +929,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cape de Farle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
+          <t>Cape de l'Homme Ours</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Craquelocape</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Cape de Farle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
@@ -936,7 +965,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cape Ricéfini</t>
+          <t>Craquelocape</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -946,29 +975,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cape Hôte</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Retrait PM</t>
-        </is>
-      </c>
+          <t>Cape Houte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cape Houte</t>
+          <t>Cape Aillé</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1165,6 +1190,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>130</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sac à Croquer</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Esquive PM, PO</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1179,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -1194,8 +1237,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
-    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="17"/>
+    <col width="9.140625" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1352,48 +1395,48 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Amulette de l'Homme Ours</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
+          <t>Amukwak du Vent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amukwak du Vent</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>Amulette du Kitsou</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Amulette du Kitsou</t>
+          <t>Ouassulette</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PO</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1402,11 +1445,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amulette du Boufcoul</t>
+          <t>La Chaplivate</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1416,16 +1459,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ouassulette</t>
+          <t>Collertue</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Esquive PA</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1434,61 +1477,57 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>La Chaplivate</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Amulette de Laikteur</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Collertue</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Esquive PA</t>
-        </is>
-      </c>
+          <t>Amulette de Kubitus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amulette de Laikteur</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
+          <t>Amulette de Kalkanéus</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Clémentamulette</t>
+          <t>Amulette d'Haku</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1502,7 +1541,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amulette de Kubitus</t>
+          <t>Snarmulette</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1512,11 +1551,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amulette de Kalkanéus</t>
+          <t>Pacmamulette</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1526,39 +1565,47 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amulette d'Haku</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Peignentif</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Esquive PM</t>
+        </is>
+      </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Snarmulette</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>Pendentiffre</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PA, Retrait PM</t>
+        </is>
+      </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pacmamulette</t>
+          <t>Diplamu</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1568,16 +1615,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Peignentif</t>
+          <t>Amulette Verréhor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Esquive PM</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1586,51 +1633,15 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pendentiffre</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PA, Retrait PM</t>
-        </is>
-      </c>
+          <t>Amulette de Fouduglen</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>55</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Diplamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>30</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Amulette Verréhor</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1645,7 +1656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -1660,8 +1671,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
-    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="17"/>
+    <col width="9.140625" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1698,11 +1709,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blessure du Sacrieur</t>
+          <t>Petit Anneau Magique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -1712,11 +1723,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abranneau Sombre</t>
+          <t>Blessure du Sacrieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -1726,29 +1737,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anneau Tribal</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
+          <t>Abranneau Sombre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mos Kitano</t>
+          <t>Kwakanneau de Flammes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1758,11 +1765,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scaranneau Blanc</t>
+          <t>Anobra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1772,25 +1779,29 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anneau Merta</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Anneau Tribal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anneau Rigami</t>
+          <t>Mos Kitano</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1800,11 +1811,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anodindo</t>
+          <t>Scaranneau Blanc</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1814,11 +1825,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anneau du Tofu</t>
+          <t>Alliance Ethnique</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1828,11 +1839,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anneau du Scarabosse Doré</t>
+          <t>Anneau Rigami</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1842,11 +1853,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anneau Paupayahn</t>
+          <t>Anodindo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1856,18 +1867,14 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gantelet du Real Boitar</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
+          <t>Anneau du Tofu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>0</v>
       </c>
@@ -1878,25 +1885,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gantelet des Bouftons Rouges</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
+          <t>Anneau du Scarabosse Doré</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Anneau de Laikteur</t>
+          <t>Anneau Paupayahn</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1910,26 +1913,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Anneau de Grizou</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Gantelet du Real Boitar</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Anneau d'Hectaupe</t>
+          <t>Gantelet des Bouftons Rouges</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Invoc</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1938,43 +1945,43 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anneau Pomdeupin</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Anneau de Kocksis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Anneau du Boostache</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Retrait PM</t>
-        </is>
-      </c>
+          <t>Anneau de Laikteur</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bracelet du Glutin</t>
+          <t>Anneau de Grizou</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1984,25 +1991,29 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bague Rafe</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Anneau d'Hectaupe</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mandrano</t>
+          <t>Anneau Pomdeupin</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2012,29 +2023,103 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gant de Frakacia</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Anneau du Boostache</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rondelle de Waddict</t>
+          <t>Bracelet du Glutin</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bague Rafe</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>150</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mandrano</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Annolita</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Gant de Frakacia</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rondelle de Waddict</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,7 +2134,1153 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="11" customWidth="1" style="1" min="1" max="1"/>
+    <col width="47" customWidth="1" style="1" min="2" max="2"/>
+    <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="17"/>
+    <col width="9.140625" customWidth="1" style="1" min="18" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Stats intéressantes</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Jours consécutifs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Last save</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>La Végète Hâtif</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chtévu</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ceinture Kokokette</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ceinture Tortue Verte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ceinture Banisation Sauvage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ceinture Brâkmarienne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>80</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Farlature</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ceinture du Craqueleur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>49</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>String du Mulou</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>47</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ceinture Noire de Frank Lee Bruce</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ceinture du Boufcoul</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ceinture du Koalak</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>102</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ceinture du Rat Blanc</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>130</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sangle Hynère</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>45</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Beignature</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ceinture Siks Won Naïne</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>43</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yugure</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ceinture de Tolot</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>40</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ceinture de Grüt</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ceinture de Gobeuf</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>43</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ceinture de Grouillot</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>61</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Slipapier</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>163</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ceinture des Prophètes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ceinture de Danioule</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>46</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Gladialeçon</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PO, Invoc</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ceinture Nikoti</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Esquive PA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ceinture Teule</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Esquive PM</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>195</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Obscture</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Esquive PA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ceinture Amincissante</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="11" customWidth="1" style="1" min="1" max="1"/>
+    <col width="47" customWidth="1" style="1" min="2" max="2"/>
+    <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="17"/>
+    <col width="9.140625" customWidth="1" style="1" min="18" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Stats intéressantes</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Jours consécutifs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Last save</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bottes de Force</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sandales d'Intelligence</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>75</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bottes d'Hogmeiser</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bottes de Maîtrise</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bottes Volatiles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bottes de Lymphe a Tik</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Eni Kère</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bottes Vioutifoule</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>30</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Souliers Vernis de Porkass</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kwakobottes de Vent</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>47</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bottes du Craqueleur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>30</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sandales Macien</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sandales Koliques</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bottes Paysannes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>99</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bottes du Rat Blanc</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>100</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bottes Hox</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>100</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bottes Hairo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>50</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bloptes Coco</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>47</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bottines du Black Wab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>43</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Les Sleumpettes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bottes du Real Boitar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>44</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bottes de Grüt</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bottes de Rekto Topi</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bottes de Grizou</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Esquive PM</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bottes de Phong Huss</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>44</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bottes de Grouillot</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PO, Esquive PM</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Plumodales</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>190</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Grésilobottes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Botte de Kalkanéus</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bottes du Chafer Primitif</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>43</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Bottes O'Feu</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bottokami</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>199</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bottes d'Oshimo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bottes Donion</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>30</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bottes de Frakacia</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mawabottes</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -2064,8 +3295,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
-    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="17"/>
+    <col width="9.140625" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2102,11 +3333,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ceinture Forcesque</t>
+          <t>Xaveur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -2116,11 +3347,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La Végète Hâtif</t>
+          <t>Nomoon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -2130,29 +3361,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chtévu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
+          <t>Arc de Triomphe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ceinture Kokokette</t>
+          <t>Arc Hancihaile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -2162,11 +3389,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ceinture Tortue Verte</t>
+          <t>Arc de Jeanne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2180,25 +3407,29 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ceinture Banisation Sauvage</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Arc des Rivages</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ceinture Brâkmarienne</t>
+          <t>Arc du Xueluom</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -2208,25 +3439,29 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Farlature</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Arc Chiduc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ceinture du Craqueleur</t>
+          <t>Arc Ange</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -2236,39 +3471,47 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>String du Mulou</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>Arc Oleptik</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ceinture Noire de Frank Lee Bruce</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>Arc Tangente</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ceinture Akwadala</t>
+          <t>Baguette de Liriel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2278,30 +3521,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ceinture du Boufcoul</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>Baguette à Pans</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ceinture du Koalak</t>
+          <t>Baguette Sylvien</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Invoc</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2310,25 +3557,29 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sangle Hynère</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Baguette d'Elya Wood</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sangle Hans</t>
+          <t>Baguette Nah</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2338,11 +3589,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Beignature</t>
+          <t>Baguette Cetera</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2352,11 +3603,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ceinture Siks Won Naïne</t>
+          <t>Baguette Hincelle</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2366,25 +3617,29 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Yugure</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Baguette du Scarabosse Doré</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ceinture de Tolot</t>
+          <t>Baguette Osseuse</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2394,11 +3649,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ceinture de Grüt</t>
+          <t>Bâton en Racine d'Abraknyde</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2408,25 +3663,29 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ceinture de Gobeuf</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Bâton du Maître des Tabis</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ceinture de Grouillot</t>
+          <t>La Lance à un "110"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -2436,16 +3695,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Slipapier</t>
+          <t>Abraton Sombre</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Retrait PM</t>
+          <t>Invoc</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2454,66 +3713,62 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ceinture des Prophètes</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Retrait PM</t>
-        </is>
-      </c>
+          <t>Sceptre Zor</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ceinture de Danioule</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Bâton en bambou spirituel</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gladialeçon</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>PO, Invoc</t>
-        </is>
-      </c>
+          <t>Blessdags</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ceinture Nikoti</t>
+          <t>Dagues Ancestrales</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Esquive PA</t>
+          <t>Invoc</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2522,47 +3777,39 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ceinture Teule</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Esquive PM</t>
-        </is>
-      </c>
+          <t>Le Rasoir Infernal</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Obscture</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Esquive PA</t>
-        </is>
-      </c>
+          <t>Dague Régah</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ceinture Amincissante</t>
+          <t>La Triste Lame</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2570,576 +3817,16 @@
         <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="11" customWidth="1" style="1" min="1" max="1"/>
-    <col width="47" customWidth="1" style="1" min="2" max="2"/>
-    <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
-    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
-    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
-    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Level</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Nom</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Stats intéressantes</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Jours consécutifs</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Last save</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>06-05-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bottes de Faillete</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bottes de Kluh</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bottes de Force</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sandales d'Intelligence</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>75</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bottes d'Hogmeiser</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>22</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bottes de Maîtrise</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>41</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bottes Volatiles</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>39</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bottes de Lymphe a Tik</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>44</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>L'Eni Kère</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>30</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Souliers Vernis de Porkass</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>40</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Kwakobottes de Vent</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>47</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Bottes du Craqueleur</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>30</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sandales Macien</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>58</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Sandales Koliques</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>19</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Bottes Paysannes</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>100</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Bottes Hox</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>100</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Bottes Hairo</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>47</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Bottines du Black Wab</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>43</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Les Sleumpettes</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>42</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Bottes du Real Boitar</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>44</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Bottes de Grüt</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>41</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Bottes de Rekto Topi</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>41</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Bottes de Grizou</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Esquive PM</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>32</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Bottes de Phong Huss</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>44</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Bottes de Grouillot</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>PO, Esquive PM</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>56</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Plumodales</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>190</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Grésilobottes</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>39</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Botte de Kalkanéus</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>41</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Bottes du Chafer Primitif</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>43</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Bottes O'Feu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>56</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Bottokami</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bottes d'Oshimo</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
+          <t>Epée du Chevalier</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
         <v>0</v>
       </c>
@@ -3150,7 +3837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bottes Donion</t>
+          <t>Kwaklame du Vent</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -3160,11 +3847,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bottes de Frakacia</t>
+          <t>Lame du Craqueleur</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -3174,619 +3861,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mawabottes</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="11" customWidth="1" style="1" min="1" max="1"/>
-    <col width="47" customWidth="1" style="1" min="2" max="2"/>
-    <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
-    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
-    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
-    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Level</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Nom</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Stats intéressantes</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Jours consécutifs</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Last save</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>06-05-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Xaveur</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>28</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Nomoon</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Arc de Triomphe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>22</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Arc Hancihaile</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>30</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Arc de Jeanne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>46</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Arc des Rivages</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>30</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Arc du Xueluom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>87</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Arc Chiduc</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>82</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Arc Ange</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>185</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Arc Oleptik</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>167</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Arc Tangente</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>175</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Arc Ontanporin</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>20</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Baguette de Liriel</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>45</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Baguette à Pans</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Retrait PM</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>43</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Baguette Sylvien</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>117</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Baguette d'Elya Wood</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>102</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Baguette Nah</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>43</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Baguette Cetera</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>81</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Baguette Hincelle</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>59</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Baguette du Scarabosse Doré</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>173</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Baguette Osseuse</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>30</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Bâton en Racine d'Abraknyde</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>34</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Bâton du Maître des Tabis</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>29</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>La Lance à un "110"</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>87</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Abraton Sombre</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>133</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>La Canne Bière</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>61</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sceptre Zor</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>110</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Bâton en bambou spirituel</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>64</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Blessdags</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>34</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Dagues Ancestrales</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Le Rasoir Infernal</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>119</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Dague Régah</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>21</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>La Triste Lame</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>25</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>La Klebik</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>26</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Epée du Chevalier</t>
+          <t>Epée du Rat Blanc</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -3796,25 +3875,29 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kwaklame du Vent</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>Epée Kadille</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Esquive PM</t>
+        </is>
+      </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sabre Yondanwa</t>
+          <t>Katana de la Flamme</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -3824,18 +3907,14 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Epée Kadille</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Esquive PM</t>
-        </is>
-      </c>
+          <t>Katana de la Tempête</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
         <v>0</v>
       </c>
@@ -3846,7 +3925,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Katana de la Flamme</t>
+          <t>Katana de la Marée</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -3860,7 +3939,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Katana de la Tempête</t>
+          <t>Katana de la Roche</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -3874,7 +3953,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Katana de la Marée</t>
+          <t>Katana de la Feuille</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -3884,11 +3963,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Katana de la Roche</t>
+          <t>Marteau de l'Aurore</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -3898,11 +3977,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Katana de la Feuille</t>
+          <t>Masse Tmosfer</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -3912,11 +3991,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Barabas</t>
+          <t>Le Scrounnchhh</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -3926,11 +4005,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Marteau de l'Aurore</t>
+          <t>Marteau Ksain</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -3940,39 +4019,47 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Masse Tmosfer</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>Marteau du Boufcoul</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Le Scrounnchhh</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Marteau Minokers</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Invoc</t>
+        </is>
+      </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Marteau Ksain</t>
+          <t>Marteau Martel</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -3982,47 +4069,39 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Marteau du Boufcoul</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
+          <t>Mourtheau</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Marteau Minokers</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Invoc</t>
-        </is>
-      </c>
+          <t>Marteau du Chafer Draugr</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Marteau Martel</t>
+          <t>Marteau des Anciens Steamers</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -4032,11 +4111,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mourtheau</t>
+          <t>Fléau d'armes</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -4046,11 +4125,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Marteau du Chafer Draugr</t>
+          <t>Pelle de Rapage</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -4060,11 +4139,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Marteau des Anciens Steamers</t>
+          <t>Barbe Grise</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -4074,11 +4153,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fléau d'armes</t>
+          <t>Rhizome Doré</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -4088,11 +4167,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Barbe Grise</t>
+          <t>Pelle Teuze</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -4102,11 +4181,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pelle du Craqueleur</t>
+          <t>Pelle Melle</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -4116,11 +4195,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rhizome Doré</t>
+          <t>Pelle Woukuis</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -4130,14 +4209,18 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pelle Teuze</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>Pelle Houze</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PO</t>
+        </is>
+      </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
@@ -4148,21 +4231,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pelle Melle</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>Pelle Ikan</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pelle Woukuis</t>
+          <t>Pelle Musicale</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -4172,11 +4259,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pelle de Koutoulou</t>
+          <t>Pelle en Mousse</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -4186,61 +4273,57 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Pelle Houze</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
+          <t>Pelle Hectrochoc</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Pelle Ikan</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Retrait PM</t>
-        </is>
-      </c>
+          <t>Pelle Vice</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pelle Musicale</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>Pelle de Nidas</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Retrait PM</t>
+        </is>
+      </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pelle en Mousse</t>
+          <t>Fendeuse d'Abraknyde Ancestral</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -4250,11 +4333,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pelle Hectrochoc</t>
+          <t>Coupeuse de Bombu</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -4264,11 +4347,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pelle Vice</t>
+          <t>Halle de Barde</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -4278,29 +4361,25 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pelle de Nidas</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Retrait PM</t>
-        </is>
-      </c>
+          <t>Le Fendoir Tichaud</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fendeuse d'Abraknyde Ancestral</t>
+          <t>Hache Ebbah</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -4310,71 +4389,15 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Coupeuse de Bombu</t>
+          <t>Hache du Fancrôme</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>99</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Halle de Barde</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>128</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Le Fendoir Tichaud</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>62</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Hache Ebbah</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>153</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Hache du Fancrôme</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4392,7 +4415,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4404,8 +4427,8 @@
     <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
     <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
     <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="16"/>
-    <col width="9.140625" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="17"/>
+    <col width="9.140625" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -4486,4 +4509,437 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="11" customWidth="1" style="1" min="1" max="1"/>
+    <col width="47" customWidth="1" style="1" min="2" max="2"/>
+    <col width="25.140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.140625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="1" min="5" max="7"/>
+    <col width="20.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Stats intéressantes</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Jours consécutifs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Last save</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>06-05-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tacleur mineur</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fuyard</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>150</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rempart majeur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cuirassé Air</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cuirassé Eau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>100</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cuirassé Feu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>150</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuirassé Feu majeur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuirassé Terre mineur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>150</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuirassé Terre majeur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ravageur Eau mineur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>100</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ravageur Neutre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>150</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ravageur Neutre majeur</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>50</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Survivant mineur</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>150</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Saccageur Neutre majeur</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>100</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Saccageur Feu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>150</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Saccageur Eau majeur</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>50</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Saccageur Air mineur</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>50</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Evanescent mineur</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Esquive PM</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>100</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Evanescent</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Esquive PM</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Muraille Terre</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>50</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Muraille Feu mineure</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Muraille Feu</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>50</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Muraille Air mineure</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>100</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Muraille Air</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Guérisseur mineur</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>100</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guérisseur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>